--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -70,271 +70,274 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>rice</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>cooks</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>wife</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>ice</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>good</t>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>cup</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>much</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -698,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -817,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9247311827956989</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -867,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4263565891472868</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
@@ -917,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.404040404040404</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8730650154798761</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3205128205128205</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1837837837837838</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1093,13 +1096,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7792207792207793</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L10">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="M10">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1122,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7445887445887446</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="M11">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1148,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.6983050847457627</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L12">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1174,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1200,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6492776886035313</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L14">
-        <v>809</v>
+        <v>199</v>
       </c>
       <c r="M14">
-        <v>809</v>
+        <v>199</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>437</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.647887323943662</v>
+        <v>0.6508828250401284</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>811</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>811</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1252,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6461538461538462</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1275,13 +1278,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6410256410256411</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1293,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1301,13 +1304,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.640625</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1319,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1327,13 +1330,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6326530612244898</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1345,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1353,13 +1356,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6323529411764706</v>
+        <v>0.609375</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1379,13 +1382,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6285714285714286</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1397,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1405,25 +1408,25 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
+        <v>42</v>
+      </c>
+      <c r="M22">
+        <v>42</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>28</v>
-      </c>
-      <c r="M22">
-        <v>28</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1431,13 +1434,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1457,13 +1460,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5865384615384616</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1475,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1483,13 +1486,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5833333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1501,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1509,13 +1512,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5692307692307692</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1527,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1535,13 +1538,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5662650602409639</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1561,13 +1564,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.562874251497006</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L28">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1587,13 +1590,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5600000000000001</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L29">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1605,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1613,13 +1616,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5490196078431373</v>
+        <v>0.5568862275449101</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1631,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1639,13 +1642,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1665,13 +1668,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5299145299145299</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1683,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1691,13 +1694,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5263157894736842</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1709,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1717,13 +1720,13 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.5263157894736842</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1735,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1743,13 +1746,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.5238095238095238</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1761,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1769,25 +1772,25 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.5102040816326531</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L36">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <v>24</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>25</v>
-      </c>
-      <c r="M36">
-        <v>25</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1795,13 +1798,13 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.5081967213114754</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1813,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1821,13 +1824,13 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1839,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1847,13 +1850,13 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.4938271604938271</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="M39">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1865,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1873,13 +1876,13 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.49</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="L40">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1891,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1925,13 +1928,13 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.4285714285714285</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1943,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1951,13 +1954,13 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.4156626506024096</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L43">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1969,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1977,13 +1980,13 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.4</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2003,13 +2006,13 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.3870967741935484</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2021,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2029,13 +2032,13 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.3861386138613861</v>
+        <v>0.3897058823529412</v>
       </c>
       <c r="L46">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="M46">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2047,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>62</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2055,13 +2058,13 @@
         <v>59</v>
       </c>
       <c r="K47">
-        <v>0.3823529411764706</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2073,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2081,13 +2084,13 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.3813229571984436</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="L48">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2099,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>159</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2107,13 +2110,13 @@
         <v>61</v>
       </c>
       <c r="K49">
-        <v>0.3809523809523809</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>39</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2133,13 +2136,13 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.3774509803921569</v>
+        <v>0.3525179856115108</v>
       </c>
       <c r="L50">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="M50">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2151,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>254</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2159,13 +2162,13 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.3552631578947368</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2177,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2185,13 +2188,13 @@
         <v>64</v>
       </c>
       <c r="K52">
-        <v>0.3333333333333333</v>
+        <v>0.3410958904109589</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2203,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>74</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2211,13 +2214,13 @@
         <v>65</v>
       </c>
       <c r="K53">
-        <v>0.3315068493150685</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L53">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2229,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>488</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2237,13 +2240,13 @@
         <v>66</v>
       </c>
       <c r="K54">
-        <v>0.3157894736842105</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L54">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2255,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2263,13 +2266,13 @@
         <v>67</v>
       </c>
       <c r="K55">
-        <v>0.3153153153153153</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L55">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M55">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2281,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2289,13 +2292,13 @@
         <v>68</v>
       </c>
       <c r="K56">
-        <v>0.3148148148148148</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2307,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2318,10 +2321,10 @@
         <v>0.3055555555555556</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2333,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2341,13 +2344,13 @@
         <v>70</v>
       </c>
       <c r="K58">
-        <v>0.302158273381295</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L58">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2359,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2367,13 +2370,13 @@
         <v>71</v>
       </c>
       <c r="K59">
-        <v>0.2976190476190476</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2385,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>59</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2393,13 +2396,13 @@
         <v>72</v>
       </c>
       <c r="K60">
-        <v>0.2966507177033493</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L60">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M60">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2411,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2419,25 +2422,25 @@
         <v>73</v>
       </c>
       <c r="K61">
-        <v>0.2781456953642384</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L61">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M61">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2445,13 +2448,13 @@
         <v>74</v>
       </c>
       <c r="K62">
-        <v>0.2666666666666667</v>
+        <v>0.2669537136706135</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2463,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>77</v>
+        <v>681</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2471,13 +2474,13 @@
         <v>75</v>
       </c>
       <c r="K63">
-        <v>0.2626480086114101</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L63">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="M63">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2489,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>685</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2497,13 +2500,13 @@
         <v>76</v>
       </c>
       <c r="K64">
-        <v>0.2291390728476821</v>
+        <v>0.25</v>
       </c>
       <c r="L64">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="M64">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2515,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>582</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2523,13 +2526,13 @@
         <v>77</v>
       </c>
       <c r="K65">
-        <v>0.2225063938618926</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L65">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2541,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>608</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2549,13 +2552,13 @@
         <v>78</v>
       </c>
       <c r="K66">
-        <v>0.2080536912751678</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L66">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2567,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2575,13 +2578,13 @@
         <v>79</v>
       </c>
       <c r="K67">
-        <v>0.1974921630094044</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L67">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M67">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2593,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>256</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2601,13 +2604,13 @@
         <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1918819188191882</v>
+        <v>0.2163009404388715</v>
       </c>
       <c r="L68">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="M68">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2619,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2627,13 +2630,13 @@
         <v>81</v>
       </c>
       <c r="K69">
-        <v>0.1890243902439024</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L69">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M69">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2645,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2653,13 +2656,13 @@
         <v>82</v>
       </c>
       <c r="K70">
-        <v>0.1846153846153846</v>
+        <v>0.2071611253196931</v>
       </c>
       <c r="L70">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="M70">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2671,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>106</v>
+        <v>620</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2679,13 +2682,13 @@
         <v>83</v>
       </c>
       <c r="K71">
-        <v>0.183288409703504</v>
+        <v>0.2</v>
       </c>
       <c r="L71">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="M71">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2697,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>303</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2705,13 +2708,13 @@
         <v>84</v>
       </c>
       <c r="K72">
-        <v>0.1602564102564103</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2723,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2731,13 +2734,13 @@
         <v>85</v>
       </c>
       <c r="K73">
-        <v>0.1576354679802956</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L73">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2749,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>171</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2757,25 +2760,25 @@
         <v>86</v>
       </c>
       <c r="K74">
-        <v>0.1551312649164678</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="L74">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M74">
         <v>65</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>354</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2783,13 +2786,13 @@
         <v>87</v>
       </c>
       <c r="K75">
-        <v>0.1535087719298246</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L75">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M75">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2801,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2809,25 +2812,25 @@
         <v>88</v>
       </c>
       <c r="K76">
-        <v>0.1517241379310345</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L76">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M76">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2835,13 +2838,13 @@
         <v>89</v>
       </c>
       <c r="K77">
-        <v>0.1477272727272727</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="L77">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M77">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2853,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2861,13 +2864,13 @@
         <v>90</v>
       </c>
       <c r="K78">
-        <v>0.1468926553672316</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="L78">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2879,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2887,13 +2890,13 @@
         <v>91</v>
       </c>
       <c r="K79">
-        <v>0.1411042944785276</v>
+        <v>0.1503579952267303</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M79">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2905,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>140</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2913,13 +2916,13 @@
         <v>92</v>
       </c>
       <c r="K80">
-        <v>0.1333333333333333</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="L80">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M80">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2931,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2939,13 +2942,13 @@
         <v>93</v>
       </c>
       <c r="K81">
-        <v>0.1296296296296296</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="L81">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M81">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2957,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2965,13 +2968,13 @@
         <v>94</v>
       </c>
       <c r="K82">
-        <v>0.1218487394957983</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="L82">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M82">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -2983,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2991,13 +2994,13 @@
         <v>95</v>
       </c>
       <c r="K83">
-        <v>0.1119221411192214</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L83">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M83">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3009,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>365</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3017,13 +3020,13 @@
         <v>96</v>
       </c>
       <c r="K84">
-        <v>0.1057692307692308</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L84">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M84">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3035,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3043,13 +3046,13 @@
         <v>97</v>
       </c>
       <c r="K85">
-        <v>0.09677419354838709</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M85">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3061,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>224</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3069,25 +3072,25 @@
         <v>98</v>
       </c>
       <c r="K86">
-        <v>0.09315068493150686</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="L86">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M86">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N86">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>331</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3095,25 +3098,25 @@
         <v>99</v>
       </c>
       <c r="K87">
-        <v>0.09141791044776119</v>
+        <v>0.09158878504672897</v>
       </c>
       <c r="L87">
         <v>98</v>
       </c>
       <c r="M87">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3121,25 +3124,25 @@
         <v>100</v>
       </c>
       <c r="K88">
-        <v>0.08751793400286945</v>
+        <v>0.08477011494252873</v>
       </c>
       <c r="L88">
+        <v>59</v>
+      </c>
+      <c r="M88">
         <v>61</v>
       </c>
-      <c r="M88">
-        <v>62</v>
-      </c>
       <c r="N88">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O88">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3147,13 +3150,13 @@
         <v>101</v>
       </c>
       <c r="K89">
-        <v>0.08455882352941177</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="L89">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M89">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3165,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>249</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3173,13 +3176,13 @@
         <v>102</v>
       </c>
       <c r="K90">
-        <v>0.07195571955719557</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="L90">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M90">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3191,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>503</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3199,25 +3202,25 @@
         <v>103</v>
       </c>
       <c r="K91">
-        <v>0.06852791878172589</v>
+        <v>0.06963249516441006</v>
       </c>
       <c r="L91">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M91">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>367</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3225,22 +3228,22 @@
         <v>104</v>
       </c>
       <c r="K92">
-        <v>0.06067961165048544</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L92">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M92">
         <v>27</v>
       </c>
       <c r="N92">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <v>387</v>
@@ -3251,25 +3254,25 @@
         <v>105</v>
       </c>
       <c r="K93">
-        <v>0.05622837370242215</v>
+        <v>0.06284658040665435</v>
       </c>
       <c r="L93">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="M93">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="N93">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O93">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>1091</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3277,25 +3280,25 @@
         <v>106</v>
       </c>
       <c r="K94">
-        <v>0.0558766859344894</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="L94">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M94">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N94">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O94">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>490</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3303,25 +3306,51 @@
         <v>107</v>
       </c>
       <c r="K95">
-        <v>0.03026315789473684</v>
+        <v>0.05483028720626632</v>
       </c>
       <c r="L95">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M95">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N95">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="O95">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>737</v>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K96">
+        <v>0.03149606299212598</v>
+      </c>
+      <c r="L96">
+        <v>24</v>
+      </c>
+      <c r="M96">
+        <v>29</v>
+      </c>
+      <c r="N96">
+        <v>0.83</v>
+      </c>
+      <c r="O96">
+        <v>0.17</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
